--- a/biology/Histoire de la zoologie et de la botanique/Émilien_Pelletier_(biologiste)/Émilien_Pelletier_(biologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émilien_Pelletier_(biologiste)/Émilien_Pelletier_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89milien_Pelletier_(biologiste)</t>
+          <t>Émilien_Pelletier_(biologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émilien Pelletier est un chimiste et écotoxicologue québécois spécialiste de l'Arctique. Il milite par ailleurs très activement contre la militarisation du Pôle Nord.
 Titulaire d'une Chaire de recherche du Canada en écotoxicologie moléculaire appliquée aux milieux côtiers froids, à l'Institut des Sciences de la Mer (ISMER) de Rimouski, rattaché à l'Université du Québec à Rimouski (UQAR). Ses travaux ont grandement contribué à la compréhension des phénomènes de bioaccumulation chez les grands mammifères.
